--- a/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-groups.xlsx
+++ b/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-groups.xlsx
@@ -480,7 +480,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: fb_arid_viper),(Citation: checkpoint_hamas_android_malware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -504,13 +504,13 @@
     <t>,,</t>
   </si>
   <si>
-    <t>,(Citation: Microsoft DEV-0537 Mar2022),(Citation: Krebs LAPUSS Mar2022),</t>
+    <t>,(Citation: Krebs LAPUSS Mar2022),(Citation: Microsoft DEV-0537 Mar2022),</t>
   </si>
   <si>
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Leonard TAG 2023),</t>

--- a/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-groups.xlsx
+++ b/docs/attack-excel-files/v17.1/mobile-attack/mobile-attack-v17.1-groups.xlsx
@@ -480,7 +480,7 @@
     <t>Denise Tan</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: fb_arid_viper),(Citation: sentinelone_israel_hamas_war),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),</t>
+    <t>(Citation: sophos_android_apt_spyware),(Citation: sentinelone_israel_hamas_war),(Citation: fb_arid_viper),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: welivesecurity_apt-c-23),(Citation: checkpoint_hamas_android_malware),</t>
   </si>
   <si>
     <t>(Citation: CrowdStrike-Android),,</t>
@@ -510,13 +510,13 @@
     <t>,(Citation: MoustachedBouncer ESET August 2023),</t>
   </si>
   <si>
-    <t>,,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: Leonard TAG 2023),</t>
-  </si>
-  <si>
-    <t>,(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Mphasis SS_SIM_Swap Apr2024),</t>
+    <t>,,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Leonard TAG 2023),(Citation: mandiant_apt44_unearthing_sandworm),</t>
+  </si>
+  <si>
+    <t>,(Citation: Mphasis SS_SIM_Swap Apr2024),(Citation: MSTIC Octo Tempest Operations October 2023),</t>
   </si>
   <si>
     <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Meta Adversarial Threat Report 2022),</t>
